--- a/data/trans_orig/Q15_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Estudios-trans_orig.xlsx
@@ -671,27 +671,27 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -811,34 +811,34 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
           <t>0,09</t>
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -879,34 +879,34 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,05; 0,09</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,06</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,06; 0,09</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0,04; 0,06</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,07</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>0,06; 0,09</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,06</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,08</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,09</t>
-        </is>
-      </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t>0,08; 0,1</t>
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,08</t>
+          <t>0,05; 0,07</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,17</t>
+          <t>0,05; 0,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,11</t>
+          <t>0,05; 0,12</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1159,27 +1159,27 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>0,06; 0,09</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,07</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,11</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,08</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>0,06; 0,1</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,07</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,11</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,08</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_orig/Q15_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de accidentes en los últimos 12 meses</t>
+          <t>Número medio de accidentes en los últimos 12 meses</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,07</t>
+          <t>0,04; 0,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,16</t>
+          <t>0,08; 0,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,09</t>
+          <t>0,04; 0,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,06</t>
+          <t>0,04; 0,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,2</t>
+          <t>0,05; 0,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,19 +1039,19 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>0,04; 0,07</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,08</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>0,04; 0,08</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,08</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,08</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
           <t>0,04; 0,07</t>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,12</t>
+          <t>0,05; 0,13</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,09</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
